--- a/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 10 Permutations/Trial 10 Permutations_P-and-b-constant_summary.xlsx
+++ b/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 10 Permutations/Trial 10 Permutations_P-and-b-constant_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdahlqui\Documents\Travel-Conferences\BOSC_ISMB_2025\trial 10 permutations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2926738F-A5A7-4B6F-B062-930D3110CE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A8723-9D68-4C5A-A893-EE547585E766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="845" activeTab="5" xr2:uid="{61DF7949-D53D-4105-9735-EE06691314FF}"/>
+    <workbookView xWindow="1524" yWindow="516" windowWidth="19296" windowHeight="11328" tabRatio="845" xr2:uid="{61DF7949-D53D-4105-9735-EE06691314FF}"/>
   </bookViews>
   <sheets>
     <sheet name="P and b Constant" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="27">
   <si>
     <t>Parameter</t>
   </si>
@@ -142,12 +142,15 @@
   <si>
     <t>gene2 to gene2 is now 0</t>
   </si>
+  <si>
+    <t xml:space="preserve">rerun on lab computer </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +193,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +225,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -223,6 +234,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +482,7 @@
                   <c:v>2.8576323419504846E-10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8576387788761855E-10</c:v>
+                  <c:v>1.1736282873632674E-11</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.3454244253849839E-10</c:v>
@@ -637,6 +656,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -644,7 +664,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1582,21 +1601,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7478D67-BA7D-48FA-92AF-8000621A116E}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>10</v>
       </c>
@@ -1636,7 +1655,7 @@
         <v>5.8258184255845696E-15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>10.01</v>
       </c>
@@ -1656,7 +1675,7 @@
         <v>5.8258162945863004E-15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>10.02</v>
       </c>
@@ -1676,7 +1695,7 @@
         <v>6.0324469582005103E-14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>10.029999999999999</v>
       </c>
@@ -1696,7 +1715,7 @@
         <v>6.0324475548794538E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>10.039999999999999</v>
       </c>
@@ -1716,7 +1735,7 @@
         <v>4.4530021898618181E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>10.050000000000001</v>
       </c>
@@ -1736,7 +1755,7 @@
         <v>4.453009274570378E-14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>10.06</v>
       </c>
@@ -1756,7 +1775,7 @@
         <v>4.6243188520765574E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>10.07</v>
       </c>
@@ -1776,7 +1795,7 @@
         <v>4.6243246194696434E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>10.08</v>
       </c>
@@ -1796,7 +1815,7 @@
         <v>6.121566014911848E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10.09</v>
       </c>
@@ -1816,7 +1835,7 @@
         <v>6.121567108384499E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10.1</v>
       </c>
@@ -1836,7 +1855,7 @@
         <v>6.84673616350159E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10.11</v>
       </c>
@@ -1856,7 +1875,7 @@
         <v>6.8467390589752779E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>10.119999999999999</v>
       </c>
@@ -1876,7 +1895,7 @@
         <v>1.2973373611148162E-13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10.130000000000001</v>
       </c>
@@ -1889,14 +1908,14 @@
       <c r="E15" s="6">
         <v>10.16</v>
       </c>
-      <c r="F15" s="1">
-        <v>2.8576387788761855E-10</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1.2973403503243206E-13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="5">
+        <v>1.1736282873632674E-11</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1.5802502107792703E-33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>10.14</v>
       </c>
@@ -1916,7 +1935,7 @@
         <v>1.6738567565980602E-13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>10.15</v>
       </c>
@@ -1936,15 +1955,15 @@
         <v>1.6738606494641688E-13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>10.16</v>
       </c>
-      <c r="B18" s="1">
-        <v>2.8576387788761855E-10</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1.2973403503243206E-13</v>
+      <c r="B18" s="5">
+        <v>1.1736282873632674E-11</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.5802502107792703E-33</v>
       </c>
       <c r="E18" s="6">
         <v>10.17</v>
@@ -1956,7 +1975,7 @@
         <v>2.9655616945273952E-13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>10.17</v>
       </c>
@@ -1976,7 +1995,7 @@
         <v>2.9655616162925685E-13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>10.18</v>
       </c>
@@ -1996,7 +2015,7 @@
         <v>3.7211027342872441E-13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>10.19</v>
       </c>
@@ -2016,7 +2035,7 @@
         <v>3.721125607400662E-13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>10.199999999999999</v>
       </c>
@@ -2036,7 +2055,7 @@
         <v>5.119772618940962E-13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>10.210000000000001</v>
       </c>
@@ -2056,7 +2075,7 @@
         <v>5.1197817851286033E-13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>10.220000000000001</v>
       </c>
@@ -2076,7 +2095,7 @@
         <v>4.961265840758346E-12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>10.23</v>
       </c>
@@ -2096,41 +2115,41 @@
         <v>4.9612684734289339E-12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="1">
         <f>AVERAGE(B2:B25)</f>
-        <v>7.3715465423853707E-9</v>
+        <v>7.3601287259264542E-9</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F25)</f>
-        <v>7.3715465423853698E-9</v>
+        <v>7.3601287259264525E-9</v>
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="1">
         <f>SUM(B2:B25)</f>
-        <v>1.769171170172489E-7</v>
+        <v>1.7664308942223489E-7</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="1">
         <f>SUM(F2:F25)</f>
-        <v>1.7691711701724887E-7</v>
+        <v>1.7664308942223487E-7</v>
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>16</v>
       </c>
@@ -2138,7 +2157,7 @@
         <v>7.3715465423853698E-9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>17</v>
       </c>
@@ -2166,100 +2185,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6.0324469582005103E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-1.9999975121783158</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>0.99999935271339535</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999949339422498</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-1.0000000196750956</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1.5802502107792703E-33</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.9999977355667544</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2267,12 +2286,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2292,7 +2311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2312,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2332,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2352,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -2366,7 +2385,7 @@
         <v>4.1897994855827515E-13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>3.871093850112076E-16</v>
@@ -2380,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>5.1276579236885249E-12</v>
@@ -2394,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>1.1736281714087789E-11</v>
@@ -2410,117 +2429,118 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>4.453009274570378E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
         <v>1.0000001966291061</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <v>-0.99999856314711655</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>2.4999957863613287</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11">
         <v>1.9999965236701731</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>1.5802502107792703E-33</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11">
         <v>-1.9999998827994938</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2536,11 +2556,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10">
         <v>8.5676199836879352E-15</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2556,11 +2576,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10">
         <v>9.7556044172171362E-14</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2576,11 +2596,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10">
         <v>2.7466614081252032E-14</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2596,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -2610,7 +2630,7 @@
         <v>2.0645462086839121E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>1.2084869065326996E-11</v>
@@ -2624,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>1.3735958650936284E-14</v>
@@ -2638,13 +2658,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>1.4201814238030833E-11</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>21</v>
       </c>
@@ -2659,100 +2679,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1.2973373611148162E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-0.99998460389867672</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>1.9999930483688415</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999860552191655</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-2.0000005756511285</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.0000002583568322</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2760,12 +2780,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2785,7 +2805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2805,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2825,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2845,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -2859,7 +2879,7 @@
         <v>4.8325175763711577E-11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>3.3137422179240507E-13</v>
@@ -2873,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>6.6748252718656493E-14</v>
@@ -2887,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>2.8576323419504846E-10</v>
@@ -2903,100 +2923,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2.9655616162925685E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>1.9999906925571418</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>-1.9999813429170166</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999723316727858</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>1.000000245142856</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>-1.0000003470369505</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3004,12 +3024,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3029,7 +3049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3049,7 +3069,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3069,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -3103,7 +3123,7 @@
         <v>3.4808674545062831E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>6.0095019855006701E-14</v>
@@ -3117,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>1.2043464501918322E-13</v>
@@ -3131,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>4.3489576767431899E-10</v>
@@ -3147,100 +3167,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6.121567108384499E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-1.9999974061425665</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>-1.000002746723865</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999935763527343</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>0.99999906846387299</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.9999952626069031</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3248,12 +3268,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3273,7 +3293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3293,7 +3313,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3313,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3333,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -3347,7 +3367,7 @@
         <v>7.5444919906780661E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>8.6775955593124807E-13</v>
@@ -3361,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>2.2442893354752689E-11</v>
@@ -3375,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>3.7583241286728069E-11</v>
@@ -3391,100 +3411,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6.8467390589752779E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-0.99999488119467184</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>0.99998448704054943</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.499989485956192</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>1.9999995436373339</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1.5802502107792703E-33</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>-2.0000002581344654</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3492,12 +3512,12 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3517,7 +3537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3537,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3557,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3577,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -3591,7 +3611,7 @@
         <v>2.4065191091502447E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>2.082668830111635E-13</v>
@@ -3605,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>6.6633402205916017E-14</v>
@@ -3619,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>2.6712897918787831E-10</v>
@@ -3635,100 +3655,100 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:K11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5.8258184255845696E-15</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>1.0000008175523434</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>1.9999989930815505</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999995111569882</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-2.00000010033596</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>-1.0000000179257666</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3736,12 +3756,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3764,7 +3784,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3787,7 +3807,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3810,7 +3830,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -3833,7 +3853,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -3847,7 +3867,7 @@
         <v>1.0138847639610676E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>1.0067304866097842E-14</v>
@@ -3861,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>3.2133310994829596E-16</v>
@@ -3875,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>1.6926652361025009E-12</v>
@@ -3891,100 +3911,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>4.961265840758346E-12</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>1.9997484432133894</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>-1.9998538084625663</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4996042072645608</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-1.0000018644483171</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>3.9506255269481758E-34</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.000002004398755</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3992,12 +4012,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4017,7 +4037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4037,7 +4057,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4057,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4077,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -4091,7 +4111,7 @@
         <v>2.1371965617220388E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>3.476167527018531E-12</v>
@@ -4105,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>4.0176143689388353E-12</v>
@@ -4119,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>8.4660276288965343E-8</v>
@@ -4135,100 +4155,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5.119772618940962E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>0.9999690524269087</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>-1.9999806052295417</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999643105820377</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-0.9999999946943976</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>9.8765638173704394E-35</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.9999991814581981</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4236,12 +4256,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4261,7 +4281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4281,7 +4301,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4301,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4321,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -4335,7 +4355,7 @@
         <v>3.7615712113069604E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>2.814941684663979E-17</v>
@@ -4349,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>6.7001068144896953E-13</v>
@@ -4363,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>1.3345794402029193E-9</v>
@@ -4379,20 +4399,20 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4412,7 +4432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4432,7 +4452,7 @@
         <v>-1.0000017648978536</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4452,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4472,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4480,12 +4500,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4505,7 +4525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4525,7 +4545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4545,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4565,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -4579,7 +4599,7 @@
         <v>3.1148644337830066E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>1.3304666468439787E-11</v>
@@ -4593,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>1.6078918830352238E-12</v>
@@ -4607,13 +4627,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>1.970969399339831E-11</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="7">
         <v>45843</v>
       </c>
@@ -4621,7 +4641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="7">
         <v>45845</v>
       </c>
@@ -4639,100 +4659,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>4.6243188520765574E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-1.0000017648965822</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>-1.9999987029769808</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999953038632419</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>0.99999873197499234</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.9999963524455466</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4740,12 +4760,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4765,7 +4785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4785,7 +4805,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4805,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4825,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -4839,7 +4859,7 @@
         <v>1.6822687123576798E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>1.6078874200544956E-12</v>
@@ -4853,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>1.3304653490281946E-11</v>
@@ -4867,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>1.9709669568599738E-11</v>
@@ -4883,100 +4903,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3.7211027342872441E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-0.99999143478223451</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>1.9999702957439369</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999669542435354</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>1.0000004513686034</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>-2.0000007151850743</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4984,12 +5004,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5009,7 +5029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5029,7 +5049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5049,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5069,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -5083,7 +5103,7 @@
         <v>8.8234282826096047E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>2.0373361611943487E-13</v>
@@ -5097,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>5.1148969046388547E-13</v>
@@ -5111,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>9.5642100693777928E-10</v>
@@ -5127,100 +5147,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1.6738567565980602E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>1.9999803187426719</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>1.0000068654853496</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999840034547827</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-2.000000170131508</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>-1.000000163458584</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5228,12 +5248,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5253,7 +5273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5273,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5293,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5313,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -5327,7 +5347,7 @@
         <v>4.7134889085035144E-11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>2.8944730011877375E-14</v>
@@ -5341,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>2.6718708683799799E-14</v>
@@ -5355,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>4.3454244253849839E-10</v>
@@ -5371,100 +5391,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6.84673616350159E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>0.99998448704204745</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>-0.99999488119518376</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999894859578649</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-2.0000002581345608</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1.5802502107792703E-33</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.9999995436379061</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5472,12 +5492,12 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5497,7 +5517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5517,7 +5537,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5537,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5557,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -5571,7 +5591,7 @@
         <v>2.6202162746760082E-11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>6.663345149885936E-14</v>
@@ -5585,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>2.0826636074188978E-13</v>
@@ -5599,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>2.6712892699645868E-10</v>
@@ -5615,100 +5635,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6.121566014911848E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-1.00000274672318</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>-1.9999974061433183</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999935763535008</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>1.9999952626075772</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>0.99999906846323849</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5716,12 +5736,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5741,7 +5761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5761,7 +5781,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5781,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5801,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -5815,7 +5835,7 @@
         <v>6.7280924850193573E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>2.2442886967539967E-11</v>
@@ -5829,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>8.6776073803694559E-13</v>
@@ -5843,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>3.7583228418221325E-11</v>
@@ -5858,106 +5878,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7097915-D109-4AA4-A810-F235ABDB6BB3}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>4.9612684734289339E-12</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-1.9998538084228215</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>1.9997484431462127</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4996042071598006</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>1.0000020044015805</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>3.9506255269481758E-34</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>-1.0000018644497914</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5965,12 +5985,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5990,7 +6010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6010,7 +6030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6030,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6050,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -6064,7 +6084,7 @@
         <v>6.3280850687367417E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G14" si="1">(E10-E4)^2</f>
         <v>4.0176256958747288E-12</v>
@@ -6078,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" ref="E15:G15" si="2">(E11-E5)^2</f>
         <v>3.4761730248170677E-12</v>
@@ -6092,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>8.4660321724038567E-8</v>
@@ -6108,105 +6128,105 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5.8258162945863004E-15</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>1.9999989930816247</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>1.0000008175527222</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999995111571991</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-1.000000017925748</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>-2.000000100335916</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6214,12 +6234,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6239,7 +6259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6259,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6279,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6299,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -6313,7 +6333,7 @@
         <v>6.6839245355642401E-13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>3.2133244125492189E-16</v>
@@ -6327,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>1.0067296043592571E-14</v>
@@ -6341,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>1.6926656966503639E-12</v>
@@ -6357,100 +6377,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5.1197817851286033E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-1.9999806052118489</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>0.9999690523986613</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999643105503275</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>1.9999991814582938</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>9.8765638173704394E-35</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>-0.99999999469441758</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6458,12 +6478,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6483,7 +6503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6503,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6523,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6543,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -6557,7 +6577,7 @@
         <v>9.5775402861938106E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>6.7001052477807284E-13</v>
@@ -6571,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>2.8149204792569093E-17</v>
@@ -6585,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>1.3345818747174865E-9</v>
@@ -6601,100 +6621,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1.6738606494641688E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>1.0000068654901397</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>1.9999803187196745</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999840034354035</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-1.0000001634589961</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>-2.000000170132525</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6702,12 +6722,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6727,7 +6747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6747,7 +6767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6767,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6787,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -6801,7 +6821,7 @@
         <v>3.8735279525007366E-10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>2.6718843411368611E-14</v>
@@ -6815,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>2.8945076048248243E-14</v>
@@ -6829,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>4.3454341402825142E-10</v>
@@ -6845,100 +6865,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3.721125607400662E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>1.9999702956520271</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>-0.99999143475567898</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999669541419771</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-2.0000007151876531</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.0000004513707013</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6946,12 +6966,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6971,7 +6991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6991,7 +7011,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7011,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7031,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -7045,7 +7065,7 @@
         <v>7.336341027883029E-11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>5.1149337914632401E-13</v>
@@ -7059,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>2.0373550995584485E-13</v>
@@ -7073,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>9.5642692766258606E-10</v>
@@ -7088,101 +7108,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB9E05B-3793-41C3-B94B-40F5229BD806}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>4.4530021898618181E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-0.99999856315284874</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>1.0000001966294558</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999957863638045</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-1.9999998827998364</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1.5802502107792703E-33</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.9999965236692652</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7190,12 +7210,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7215,7 +7235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7238,7 +7258,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7261,7 +7281,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7284,7 +7304,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -7298,7 +7318,7 @@
         <v>3.8663142899473503E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>1.373587834179174E-14</v>
@@ -7312,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>1.2084875377928334E-11</v>
@@ -7326,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>1.4201804135251729E-11</v>
@@ -7342,100 +7362,100 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:K11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>6.0324475548794538E-14</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>0.99999935271338392</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>-1.9999975121782432</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999949339419998</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>1.9999977355665814</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1.5802502107792703E-33</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>-1.000000019675098</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7443,12 +7463,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7468,7 +7488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7491,7 +7511,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7514,7 +7534,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7537,7 +7557,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -7551,7 +7571,7 @@
         <v>6.1892570937304122E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>5.1276587070590334E-12</v>
@@ -7565,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>3.8710948112368758E-16</v>
@@ -7579,13 +7599,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>1.1736282873632674E-11</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="7">
         <v>45843</v>
       </c>
@@ -7593,7 +7613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="7">
         <v>45845</v>
       </c>
@@ -7611,100 +7631,100 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2.9655616945273952E-13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
         <v>-1.9999813429167259</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>1.9999906925578379</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2.4999723316726974</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>-1.0000003470368402</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
         <v>1.0000002451419792</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7712,12 +7732,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7737,7 +7757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7757,7 +7777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7777,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7797,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
@@ -7811,7 +7831,7 @@
         <v>8.6628479600811907E-11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
         <v>1.2043456842385891E-13</v>
@@ -7825,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
         <v>6.0094589946716819E-14</v>
@@ -7839,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
         <v>4.3489576505541156E-10</v>
@@ -7852,213 +7872,215 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743B6CCE-E37A-4B9D-B598-F019BFB3039F}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.2973403503243206E-13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1.9999930483614163</v>
-      </c>
-      <c r="G3">
-        <v>-0.99998460388113897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="12">
+        <v>6.0324475548794538E-14</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.99999935271338392</v>
+      </c>
+      <c r="G3" s="13">
+        <v>-1.9999975121782432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2.4999860552033257</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1.0000002583564198</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="12">
+        <v>2.4999949339419998</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1.9999977355665814</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>-2.000000575651689</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="12">
+        <v>1.5802502107792703E-33</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13">
+        <v>-1.000000019675098</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2.0804470751571594E-13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>5.7733546676350334E-14</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>7.5532454009448706E-14</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="15">
         <v>2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4.7707425960584586E-14</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>3.8967014257090717E-15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>1.7726069615587113E-13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>-2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>(E9-E3)^2</f>
         <v>0</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13:G13" si="0">(F9-F3)^2</f>
-        <v>4.8325278997875055E-11</v>
+        <v>4.1897996336210463E-13</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>2.370404759830555E-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.1892570937304122E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14">
         <f t="shared" ref="E14:G15" si="1">(E10-E4)^2</f>
-        <v>6.6748039658751475E-14</v>
+        <v>5.1276587070590334E-12</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
@@ -8069,10 +8091,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E11-E5)^2</f>
-        <v>3.3137486702922715E-13</v>
+        <v>3.8710948112368758E-16</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -8083,13 +8105,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3">
         <f>SUM(E13:G15)</f>
-        <v>2.8576387788761855E-10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1.1736282873632674E-11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>45843</v>
       </c>
@@ -8097,12 +8119,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>45845</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>45945</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
